--- a/Nonvisual Properties/nonvisual_properties.xlsx
+++ b/Nonvisual Properties/nonvisual_properties.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craasand\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2460" windowWidth="21405" windowHeight="16440"/>
+    <workbookView xWindow="10020" yWindow="765" windowWidth="34680" windowHeight="21765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
   <si>
     <t>Subtype</t>
   </si>
@@ -140,9 +145,6 @@
     <t>WEAK</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
     <t>MED</t>
   </si>
   <si>
@@ -177,6 +179,99 @@
   </si>
   <si>
     <t>MED* = easily broken due to high porosity</t>
+  </si>
+  <si>
+    <t>Density (g/cm3) = mass per unit volume</t>
+  </si>
+  <si>
+    <t>Reacts to acid = reaction to dilute hydrochloric (HCl), the reaction liberates CO2 from the crystal lattice</t>
+  </si>
+  <si>
+    <t>Hardness = ability of the rock to resist abrasion, typically done as a relative scale based on common objects</t>
+  </si>
+  <si>
+    <t>Heft = estimate of the density of the sample by holding the rock and judging the mass relative to the size of the sample</t>
+  </si>
+  <si>
+    <t>Conchodal fracture = Smoothly curving surface resembling broken glass, surface often has a set of spaced curved lines</t>
+  </si>
+  <si>
+    <t>2.5-2.7</t>
+  </si>
+  <si>
+    <t>2.2-2.9</t>
+  </si>
+  <si>
+    <t>2.8-3.0</t>
+  </si>
+  <si>
+    <t>3.0-3.1</t>
+  </si>
+  <si>
+    <t>2.5-2.8</t>
+  </si>
+  <si>
+    <t>2.7-2.9</t>
+  </si>
+  <si>
+    <t>3.2-3.3</t>
+  </si>
+  <si>
+    <t>0.3-0.6</t>
+  </si>
+  <si>
+    <t>2.4-2.6</t>
+  </si>
+  <si>
+    <t>2.9-3.0</t>
+  </si>
+  <si>
+    <t>1.1-1.3</t>
+  </si>
+  <si>
+    <t>2.6-2.9</t>
+  </si>
+  <si>
+    <t>2.6-3.1</t>
+  </si>
+  <si>
+    <t>2.7-2.8</t>
+  </si>
+  <si>
+    <t>2.6-2.7</t>
+  </si>
+  <si>
+    <t>2.2-3.3</t>
+  </si>
+  <si>
+    <t>2.7-3.2</t>
+  </si>
+  <si>
+    <t>0.7-0.9</t>
+  </si>
+  <si>
+    <t>1.3-3.0</t>
+  </si>
+  <si>
+    <t>2.1-3.0</t>
+  </si>
+  <si>
+    <t>2.3-2.4</t>
+  </si>
+  <si>
+    <t>2.1-2.5</t>
+  </si>
+  <si>
+    <t>2.2-2.5</t>
+  </si>
+  <si>
+    <t>2.0-2.7</t>
+  </si>
+  <si>
+    <t>Average Density</t>
+  </si>
+  <si>
+    <t>Density Range</t>
   </si>
 </sst>
 </file>
@@ -241,8 +336,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,7 +386,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -291,6 +396,11 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -300,6 +410,11 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -307,6 +422,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,12 +731,12 @@
     <col min="5" max="5" width="8.85546875" style="2"/>
     <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,13 +750,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+      <c r="J2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -646,19 +773,23 @@
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5">
         <v>2.8</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -666,19 +797,23 @@
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5">
         <v>2.9</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -686,19 +821,23 @@
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="5">
         <v>2.9</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -706,19 +845,23 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -726,19 +869,23 @@
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5">
         <v>2.6</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -746,19 +893,23 @@
         <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5">
         <v>2.9</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -766,19 +917,23 @@
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5">
         <v>2.7</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -786,19 +941,23 @@
         <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5">
         <v>3.3</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -806,19 +965,23 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="5">
         <v>0.3</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -826,19 +989,28 @@
         <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
         <v>2.5</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+      <c r="J13"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -846,19 +1018,23 @@
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5">
         <v>2.9</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -866,19 +1042,23 @@
         <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5">
         <v>1.3</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -886,19 +1066,23 @@
         <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5">
         <v>2.8</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -906,19 +1090,23 @@
         <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="5">
         <v>2.8</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -926,19 +1114,23 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5">
         <v>2.7</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -946,19 +1138,23 @@
         <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5">
         <v>2.6</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -966,19 +1162,23 @@
         <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5">
         <v>2.7</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -986,19 +1186,23 @@
         <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5">
         <v>2.7</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1006,36 +1210,49 @@
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="5">
         <v>2.7</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="5">
         <v>2.7</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1043,19 +1260,23 @@
         <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="5">
         <v>1.2</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1063,19 +1284,23 @@
         <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1083,19 +1308,23 @@
         <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="5">
         <v>2.6</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1103,39 +1332,47 @@
         <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="5">
         <v>2.5</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="5">
         <v>2.5</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1143,19 +1380,23 @@
         <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="5">
         <v>2.6</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1163,19 +1404,23 @@
         <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="5">
         <v>2.4</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1183,19 +1428,23 @@
         <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="5">
         <v>2.5</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1203,19 +1452,23 @@
         <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="5">
         <v>2.5</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1223,39 +1476,58 @@
         <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="4" t="s">
+      <c r="I34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="4" t="s">
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="G40" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
